--- a/quantifyVagusNerve/Plots/T4transport/complete_local_linhom_sector_horizontal1_1/complete_local_linhom_sector_horizontal1_1_all_result.xlsx
+++ b/quantifyVagusNerve/Plots/T4transport/complete_local_linhom_sector_horizontal1_1/complete_local_linhom_sector_horizontal1_1_all_result.xlsx
@@ -344,88 +344,88 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.49964008386749</v>
+        <v>0.0976873159957558</v>
       </c>
       <c r="C1" t="n">
-        <v>0.465554866839056</v>
+        <v>0.269196848669199</v>
       </c>
       <c r="D1" t="n">
-        <v>0.426158769685629</v>
+        <v>0.294563805628167</v>
       </c>
       <c r="E1" t="n">
-        <v>0.446526652605102</v>
+        <v>0.269990707741022</v>
       </c>
       <c r="F1" t="n">
-        <v>0.441441964590412</v>
+        <v>0.0880587135749088</v>
       </c>
       <c r="G1" t="n">
-        <v>0.413495184889299</v>
+        <v>0.134800699817931</v>
       </c>
       <c r="H1" t="n">
-        <v>0.480912872292869</v>
+        <v>0.0838383585439803</v>
       </c>
       <c r="I1" t="n">
-        <v>0.420111296712667</v>
+        <v>0.13784636717945</v>
       </c>
       <c r="J1" t="n">
-        <v>0.649849689382252</v>
+        <v>0.193261487944399</v>
       </c>
       <c r="K1" t="n">
-        <v>0.433289700937318</v>
+        <v>0.0533327635156882</v>
       </c>
       <c r="L1" t="n">
-        <v>0.477729796699565</v>
+        <v>0.158067497401699</v>
       </c>
       <c r="M1" t="n">
-        <v>0.461693790178739</v>
+        <v>0.08620629289526</v>
       </c>
       <c r="N1" t="n">
-        <v>0.424826546308257</v>
+        <v>0.0886933377529316</v>
       </c>
       <c r="O1" t="n">
-        <v>0.464427124909848</v>
+        <v>0.102610858481274</v>
       </c>
       <c r="P1" t="n">
-        <v>0.433183160299916</v>
+        <v>0.0577491718222559</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.460909087251523</v>
+        <v>0.120591210024827</v>
       </c>
       <c r="R1" t="n">
-        <v>0.421671934250638</v>
+        <v>0.0602908891293895</v>
       </c>
       <c r="S1" t="n">
-        <v>0.451399931776142</v>
+        <v>0.109181056679647</v>
       </c>
       <c r="T1" t="n">
-        <v>0.496191768694226</v>
+        <v>0.0516935432078732</v>
       </c>
       <c r="U1" t="n">
-        <v>0.43799579060559</v>
+        <v>0.0396599471561311</v>
       </c>
       <c r="V1" t="n">
-        <v>0.411996506590286</v>
+        <v>0.0460171674611545</v>
       </c>
       <c r="W1" t="n">
-        <v>0.414052130652344</v>
+        <v>0.0601323534658696</v>
       </c>
       <c r="X1" t="n">
-        <v>0.425821880858829</v>
+        <v>0.049576699277319</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.427241580756561</v>
+        <v>0.0790118876426586</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.436085231115606</v>
+        <v>0.0750275019291803</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.484365751771048</v>
+        <v>0.0868158745790555</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.457638732739108</v>
+        <v>0.0501061374141702</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.506342185706935</v>
+        <v>0.117153835547459</v>
       </c>
     </row>
     <row r="2">
@@ -436,85 +436,85 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.49139812797924</v>
+        <v>0.282090198690282</v>
       </c>
       <c r="D2" t="n">
-        <v>0.448836670646708</v>
+        <v>0.306211328486933</v>
       </c>
       <c r="E2" t="n">
-        <v>0.465181568398881</v>
+        <v>0.282405258344126</v>
       </c>
       <c r="F2" t="n">
-        <v>0.451447092372946</v>
+        <v>0.125528918848615</v>
       </c>
       <c r="G2" t="n">
-        <v>0.441867134737991</v>
+        <v>0.161587552091566</v>
       </c>
       <c r="H2" t="n">
-        <v>0.506130301195608</v>
+        <v>0.123311800374362</v>
       </c>
       <c r="I2" t="n">
-        <v>0.443050259845519</v>
+        <v>0.164624457963318</v>
       </c>
       <c r="J2" t="n">
-        <v>0.606094565793353</v>
+        <v>0.211568886105101</v>
       </c>
       <c r="K2" t="n">
-        <v>0.525988486162096</v>
+        <v>0.104933742971115</v>
       </c>
       <c r="L2" t="n">
-        <v>0.481578797742027</v>
+        <v>0.180931300864203</v>
       </c>
       <c r="M2" t="n">
-        <v>0.49021873013573</v>
+        <v>0.124466391345406</v>
       </c>
       <c r="N2" t="n">
-        <v>0.456704633559582</v>
+        <v>0.12553111202776</v>
       </c>
       <c r="O2" t="n">
-        <v>0.476215578789059</v>
+        <v>0.136089986555302</v>
       </c>
       <c r="P2" t="n">
-        <v>0.46221242975849</v>
+        <v>0.107372327029458</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.476355447568359</v>
+        <v>0.150188077036843</v>
       </c>
       <c r="R2" t="n">
-        <v>0.454879238826555</v>
+        <v>0.108126265324994</v>
       </c>
       <c r="S2" t="n">
-        <v>0.472263957916118</v>
+        <v>0.141196496475446</v>
       </c>
       <c r="T2" t="n">
-        <v>0.481598610907286</v>
+        <v>0.102518535832685</v>
       </c>
       <c r="U2" t="n">
-        <v>0.450586481294291</v>
+        <v>0.098279457515972</v>
       </c>
       <c r="V2" t="n">
-        <v>0.457064978052734</v>
+        <v>0.101016874452166</v>
       </c>
       <c r="W2" t="n">
-        <v>0.443537398803911</v>
+        <v>0.108501599024355</v>
       </c>
       <c r="X2" t="n">
-        <v>0.435758901287934</v>
+        <v>0.102089131329538</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.44786500161382</v>
+        <v>0.119608122558913</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.45808964788773</v>
+        <v>0.116872556208312</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.484968021515921</v>
+        <v>0.124233797856983</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.47373767305199</v>
+        <v>0.103357861090313</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.501444978655896</v>
+        <v>0.146971601712949</v>
       </c>
     </row>
     <row r="3">
@@ -528,82 +528,82 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.428722761759482</v>
+        <v>0.378463232343788</v>
       </c>
       <c r="E3" t="n">
-        <v>0.442074524120723</v>
+        <v>0.362008511693405</v>
       </c>
       <c r="F3" t="n">
-        <v>0.431518730830704</v>
+        <v>0.280070170365186</v>
       </c>
       <c r="G3" t="n">
-        <v>0.408708947723598</v>
+        <v>0.294390347880649</v>
       </c>
       <c r="H3" t="n">
-        <v>0.490517331770967</v>
+        <v>0.277105947574905</v>
       </c>
       <c r="I3" t="n">
-        <v>0.421837819182226</v>
+        <v>0.295829526616575</v>
       </c>
       <c r="J3" t="n">
-        <v>0.611261012502853</v>
+        <v>0.321042864377158</v>
       </c>
       <c r="K3" t="n">
-        <v>0.49316404238185</v>
+        <v>0.269615690298102</v>
       </c>
       <c r="L3" t="n">
-        <v>0.466591992658384</v>
+        <v>0.306119269717319</v>
       </c>
       <c r="M3" t="n">
-        <v>0.471327621499453</v>
+        <v>0.279407025235907</v>
       </c>
       <c r="N3" t="n">
-        <v>0.421652880629049</v>
+        <v>0.27943503643147</v>
       </c>
       <c r="O3" t="n">
-        <v>0.456380973001532</v>
+        <v>0.283478574997377</v>
       </c>
       <c r="P3" t="n">
-        <v>0.439839138507242</v>
+        <v>0.273081350629547</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.458795416844798</v>
+        <v>0.290743800154851</v>
       </c>
       <c r="R3" t="n">
-        <v>0.431885074330185</v>
+        <v>0.272170770254107</v>
       </c>
       <c r="S3" t="n">
-        <v>0.452217606787139</v>
+        <v>0.285993250694538</v>
       </c>
       <c r="T3" t="n">
-        <v>0.464890496298363</v>
+        <v>0.272167960949621</v>
       </c>
       <c r="U3" t="n">
-        <v>0.432606852229608</v>
+        <v>0.270628138904462</v>
       </c>
       <c r="V3" t="n">
-        <v>0.434763429241173</v>
+        <v>0.269987082668</v>
       </c>
       <c r="W3" t="n">
-        <v>0.418217112182509</v>
+        <v>0.273756265667632</v>
       </c>
       <c r="X3" t="n">
-        <v>0.418455826251314</v>
+        <v>0.271142246201941</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.427880413274397</v>
+        <v>0.276735498272127</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.438052373169438</v>
+        <v>0.277412441564201</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.468691977645116</v>
+        <v>0.280347088110539</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.455270666787721</v>
+        <v>0.271959974789352</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.486818865228076</v>
+        <v>0.287328432739847</v>
       </c>
     </row>
     <row r="4">
@@ -620,79 +620,79 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4072336336036</v>
+        <v>0.378565960642711</v>
       </c>
       <c r="F4" t="n">
-        <v>0.390901091837783</v>
+        <v>0.302272607793282</v>
       </c>
       <c r="G4" t="n">
-        <v>0.364838647072123</v>
+        <v>0.318414775009055</v>
       </c>
       <c r="H4" t="n">
-        <v>0.467210399331541</v>
+        <v>0.298954256823476</v>
       </c>
       <c r="I4" t="n">
-        <v>0.374074810906966</v>
+        <v>0.314982281972182</v>
       </c>
       <c r="J4" t="n">
-        <v>0.595538593420769</v>
+        <v>0.337956565574683</v>
       </c>
       <c r="K4" t="n">
-        <v>0.47166660339675</v>
+        <v>0.293205756500975</v>
       </c>
       <c r="L4" t="n">
-        <v>0.433440943423182</v>
+        <v>0.325548558121959</v>
       </c>
       <c r="M4" t="n">
-        <v>0.439529799052574</v>
+        <v>0.298144474179219</v>
       </c>
       <c r="N4" t="n">
-        <v>0.381690113511765</v>
+        <v>0.303748272970908</v>
       </c>
       <c r="O4" t="n">
-        <v>0.421253715823217</v>
+        <v>0.307808088157037</v>
       </c>
       <c r="P4" t="n">
-        <v>0.404497459460137</v>
+        <v>0.294836116269124</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.420870674778152</v>
+        <v>0.309958545216754</v>
       </c>
       <c r="R4" t="n">
-        <v>0.390251552726966</v>
+        <v>0.295781000160469</v>
       </c>
       <c r="S4" t="n">
-        <v>0.414616290499497</v>
+        <v>0.30665776155991</v>
       </c>
       <c r="T4" t="n">
-        <v>0.434582462818438</v>
+        <v>0.296669698569246</v>
       </c>
       <c r="U4" t="n">
-        <v>0.393614060871296</v>
+        <v>0.291270059875942</v>
       </c>
       <c r="V4" t="n">
-        <v>0.394180261529629</v>
+        <v>0.295796453362065</v>
       </c>
       <c r="W4" t="n">
-        <v>0.376746888681473</v>
+        <v>0.295543010460576</v>
       </c>
       <c r="X4" t="n">
-        <v>0.374539074001041</v>
+        <v>0.297238903056332</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.389534340143959</v>
+        <v>0.301960575414685</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.396205238421995</v>
+        <v>0.296161886062193</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.437520323512636</v>
+        <v>0.299205184669134</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.418696745409789</v>
+        <v>0.293817124805479</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.461345597429292</v>
+        <v>0.307001045383186</v>
       </c>
     </row>
     <row r="5">
@@ -712,76 +712,76 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.411782808253398</v>
+        <v>0.281796354846341</v>
       </c>
       <c r="G5" t="n">
-        <v>0.387493766046521</v>
+        <v>0.296384424567865</v>
       </c>
       <c r="H5" t="n">
-        <v>0.475646755001129</v>
+        <v>0.27932756847225</v>
       </c>
       <c r="I5" t="n">
-        <v>0.395830882760319</v>
+        <v>0.297042086524165</v>
       </c>
       <c r="J5" t="n">
-        <v>0.58683480136708</v>
+        <v>0.319888911492524</v>
       </c>
       <c r="K5" t="n">
-        <v>0.483752432018264</v>
+        <v>0.272351799140049</v>
       </c>
       <c r="L5" t="n">
-        <v>0.448179127481878</v>
+        <v>0.30913552453226</v>
       </c>
       <c r="M5" t="n">
-        <v>0.457054420149614</v>
+        <v>0.279543816385245</v>
       </c>
       <c r="N5" t="n">
-        <v>0.399005803817886</v>
+        <v>0.280534245924719</v>
       </c>
       <c r="O5" t="n">
-        <v>0.437918927396178</v>
+        <v>0.285611885190762</v>
       </c>
       <c r="P5" t="n">
-        <v>0.423290258196773</v>
+        <v>0.279968617564569</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.437696656518418</v>
+        <v>0.291186299214938</v>
       </c>
       <c r="R5" t="n">
-        <v>0.412369066881358</v>
+        <v>0.27321073963499</v>
       </c>
       <c r="S5" t="n">
-        <v>0.435275148324623</v>
+        <v>0.292636484937567</v>
       </c>
       <c r="T5" t="n">
-        <v>0.446655829031061</v>
+        <v>0.272871580426703</v>
       </c>
       <c r="U5" t="n">
-        <v>0.410105328359232</v>
+        <v>0.271352510701529</v>
       </c>
       <c r="V5" t="n">
-        <v>0.414428595017794</v>
+        <v>0.273054484272135</v>
       </c>
       <c r="W5" t="n">
-        <v>0.398360960590038</v>
+        <v>0.275520967644539</v>
       </c>
       <c r="X5" t="n">
-        <v>0.394523397785101</v>
+        <v>0.2795845928102</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.407515132890019</v>
+        <v>0.279561422113496</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.417233170677637</v>
+        <v>0.276612574777618</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.44920966136637</v>
+        <v>0.283444154382183</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.435109244066729</v>
+        <v>0.273376117709418</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.471744806190844</v>
+        <v>0.288261286200278</v>
       </c>
     </row>
     <row r="6">
@@ -804,73 +804,73 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.370651675384497</v>
+        <v>0.155435007568805</v>
       </c>
       <c r="H6" t="n">
-        <v>0.463695249227076</v>
+        <v>0.115502431650466</v>
       </c>
       <c r="I6" t="n">
-        <v>0.378051779677624</v>
+        <v>0.159015564003081</v>
       </c>
       <c r="J6" t="n">
-        <v>0.587281284121472</v>
+        <v>0.207689853872749</v>
       </c>
       <c r="K6" t="n">
-        <v>0.476935952243063</v>
+        <v>0.0949765216761953</v>
       </c>
       <c r="L6" t="n">
-        <v>0.43258279982147</v>
+        <v>0.175951813095566</v>
       </c>
       <c r="M6" t="n">
-        <v>0.437247527569183</v>
+        <v>0.116785836056017</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3895503570505</v>
+        <v>0.119283170271322</v>
       </c>
       <c r="O6" t="n">
-        <v>0.422337377698009</v>
+        <v>0.129705824267025</v>
       </c>
       <c r="P6" t="n">
-        <v>0.40500367409205</v>
+        <v>0.0989747192586793</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.423496479581412</v>
+        <v>0.144440790115323</v>
       </c>
       <c r="R6" t="n">
-        <v>0.388913780276369</v>
+        <v>0.0990739409472098</v>
       </c>
       <c r="S6" t="n">
-        <v>0.417595216190937</v>
+        <v>0.135008203946198</v>
       </c>
       <c r="T6" t="n">
-        <v>0.435931613948715</v>
+        <v>0.0948890341611999</v>
       </c>
       <c r="U6" t="n">
-        <v>0.394441559389615</v>
+        <v>0.0890718138399831</v>
       </c>
       <c r="V6" t="n">
-        <v>0.39949314043191</v>
+        <v>0.0920492150971364</v>
       </c>
       <c r="W6" t="n">
-        <v>0.379048708129808</v>
+        <v>0.100253101338768</v>
       </c>
       <c r="X6" t="n">
-        <v>0.378328559661719</v>
+        <v>0.0939763590011713</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.390348088765548</v>
+        <v>0.112537687630794</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.399376428685604</v>
+        <v>0.108989695741539</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.438579576970656</v>
+        <v>0.117514716593993</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.422129941521432</v>
+        <v>0.0948385901936799</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.460566730428755</v>
+        <v>0.141105094590604</v>
       </c>
     </row>
     <row r="7">
@@ -896,70 +896,70 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.447404650014877</v>
+        <v>0.151481294973931</v>
       </c>
       <c r="I7" t="n">
-        <v>0.350837705026545</v>
+        <v>0.186525815377966</v>
       </c>
       <c r="J7" t="n">
-        <v>0.603781706054399</v>
+        <v>0.228675290878468</v>
       </c>
       <c r="K7" t="n">
-        <v>0.463492114407224</v>
+        <v>0.13736984245453</v>
       </c>
       <c r="L7" t="n">
-        <v>0.41303518860052</v>
+        <v>0.200741523722587</v>
       </c>
       <c r="M7" t="n">
-        <v>0.419959657486892</v>
+        <v>0.154578598215806</v>
       </c>
       <c r="N7" t="n">
-        <v>0.354489816979905</v>
+        <v>0.154749314909891</v>
       </c>
       <c r="O7" t="n">
-        <v>0.400729069284848</v>
+        <v>0.162821385056382</v>
       </c>
       <c r="P7" t="n">
-        <v>0.380225439110386</v>
+        <v>0.140031298323297</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.403293067345066</v>
+        <v>0.174633222740383</v>
       </c>
       <c r="R7" t="n">
-        <v>0.366577941510514</v>
+        <v>0.140385884840163</v>
       </c>
       <c r="S7" t="n">
-        <v>0.39540967326745</v>
+        <v>0.166859181701801</v>
       </c>
       <c r="T7" t="n">
-        <v>0.414987394460236</v>
+        <v>0.137830722828427</v>
       </c>
       <c r="U7" t="n">
-        <v>0.369840542074481</v>
+        <v>0.133992127662872</v>
       </c>
       <c r="V7" t="n">
-        <v>0.377674679918585</v>
+        <v>0.135527080043293</v>
       </c>
       <c r="W7" t="n">
-        <v>0.351691852966092</v>
+        <v>0.141154918032406</v>
       </c>
       <c r="X7" t="n">
-        <v>0.346406346124294</v>
+        <v>0.137101353373247</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.36613645095343</v>
+        <v>0.151590623301251</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.373941879941734</v>
+        <v>0.149237202666976</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.421984097561038</v>
+        <v>0.154633502735873</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.401618716231222</v>
+        <v>0.137220219919846</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.445120970355904</v>
+        <v>0.172052888385248</v>
       </c>
     </row>
     <row r="8">
@@ -988,67 +988,67 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.457928458983039</v>
+        <v>0.156582571249259</v>
       </c>
       <c r="J8" t="n">
-        <v>0.608657781169232</v>
+        <v>0.206187571080164</v>
       </c>
       <c r="K8" t="n">
-        <v>0.523747380261933</v>
+        <v>0.0893478857739557</v>
       </c>
       <c r="L8" t="n">
-        <v>0.487716112745519</v>
+        <v>0.173084763534258</v>
       </c>
       <c r="M8" t="n">
-        <v>0.496989571833509</v>
+        <v>0.114729867895178</v>
       </c>
       <c r="N8" t="n">
-        <v>0.457110876299838</v>
+        <v>0.116476222129241</v>
       </c>
       <c r="O8" t="n">
-        <v>0.489297053413006</v>
+        <v>0.127014993193165</v>
       </c>
       <c r="P8" t="n">
-        <v>0.472773882676574</v>
+        <v>0.0954372163490763</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.488299005007324</v>
+        <v>0.14180713098216</v>
       </c>
       <c r="R8" t="n">
-        <v>0.460228595759253</v>
+        <v>0.0942589492115472</v>
       </c>
       <c r="S8" t="n">
-        <v>0.486644045309907</v>
+        <v>0.132154002941436</v>
       </c>
       <c r="T8" t="n">
-        <v>0.497728381546559</v>
+        <v>0.0904338435249393</v>
       </c>
       <c r="U8" t="n">
-        <v>0.46718805623762</v>
+        <v>0.0857174249044992</v>
       </c>
       <c r="V8" t="n">
-        <v>0.469146071178928</v>
+        <v>0.0883334077243876</v>
       </c>
       <c r="W8" t="n">
-        <v>0.459278972341379</v>
+        <v>0.0972633040618139</v>
       </c>
       <c r="X8" t="n">
-        <v>0.454352843178345</v>
+        <v>0.0909624609608349</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.467361612557163</v>
+        <v>0.109957732246832</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.475456625725021</v>
+        <v>0.106875749875512</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.501304030527936</v>
+        <v>0.115804338606891</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.49385252653501</v>
+        <v>0.0909298082246009</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.510959518890379</v>
+        <v>0.139204740349311</v>
       </c>
     </row>
     <row r="9">
@@ -1080,64 +1080,64 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.595904949141516</v>
+        <v>0.232031415843162</v>
       </c>
       <c r="K9" t="n">
-        <v>0.463498101544815</v>
+        <v>0.143670525381996</v>
       </c>
       <c r="L9" t="n">
-        <v>0.431247624521509</v>
+        <v>0.203465165214741</v>
       </c>
       <c r="M9" t="n">
-        <v>0.42877645377173</v>
+        <v>0.15867237330708</v>
       </c>
       <c r="N9" t="n">
-        <v>0.369486547644658</v>
+        <v>0.16104448310611</v>
       </c>
       <c r="O9" t="n">
-        <v>0.409959611939587</v>
+        <v>0.16648254499713</v>
       </c>
       <c r="P9" t="n">
-        <v>0.391515679036272</v>
+        <v>0.145401536127929</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.409786454207687</v>
+        <v>0.178804894005122</v>
       </c>
       <c r="R9" t="n">
-        <v>0.375317972650404</v>
+        <v>0.146977030552536</v>
       </c>
       <c r="S9" t="n">
-        <v>0.403913999181777</v>
+        <v>0.171636539888817</v>
       </c>
       <c r="T9" t="n">
-        <v>0.426614780957466</v>
+        <v>0.144862086686131</v>
       </c>
       <c r="U9" t="n">
-        <v>0.382635435425353</v>
+        <v>0.140743919687006</v>
       </c>
       <c r="V9" t="n">
-        <v>0.381021391953787</v>
+        <v>0.139720313166872</v>
       </c>
       <c r="W9" t="n">
-        <v>0.366135254194216</v>
+        <v>0.149420641055784</v>
       </c>
       <c r="X9" t="n">
-        <v>0.361676816493743</v>
+        <v>0.141681498099211</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.380055333507253</v>
+        <v>0.157372477533166</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.383424777212784</v>
+        <v>0.153306401937719</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.431145929646254</v>
+        <v>0.160447089087942</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.408852691037071</v>
+        <v>0.142712799385991</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.456389847111886</v>
+        <v>0.177243616152559</v>
       </c>
     </row>
     <row r="10">
@@ -1172,61 +1172,61 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.622446843760719</v>
+        <v>0.196739743374961</v>
       </c>
       <c r="L10" t="n">
-        <v>0.602410672197985</v>
+        <v>0.241814222156414</v>
       </c>
       <c r="M10" t="n">
-        <v>0.606829053560111</v>
+        <v>0.20684020748482</v>
       </c>
       <c r="N10" t="n">
-        <v>0.582982438069285</v>
+        <v>0.207286174675051</v>
       </c>
       <c r="O10" t="n">
-        <v>0.607622108978215</v>
+        <v>0.213978667872731</v>
       </c>
       <c r="P10" t="n">
-        <v>0.597031634044248</v>
+        <v>0.197582380823656</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.607090433100586</v>
+        <v>0.222937471190181</v>
       </c>
       <c r="R10" t="n">
-        <v>0.594386111429946</v>
+        <v>0.198250182754424</v>
       </c>
       <c r="S10" t="n">
-        <v>0.609906848590347</v>
+        <v>0.217385742480467</v>
       </c>
       <c r="T10" t="n">
-        <v>0.59204391694772</v>
+        <v>0.195314870355615</v>
       </c>
       <c r="U10" t="n">
-        <v>0.58626653388936</v>
+        <v>0.193176136053689</v>
       </c>
       <c r="V10" t="n">
-        <v>0.601709897150828</v>
+        <v>0.194541658919573</v>
       </c>
       <c r="W10" t="n">
-        <v>0.592267727945935</v>
+        <v>0.198214809863971</v>
       </c>
       <c r="X10" t="n">
-        <v>0.586176823020386</v>
+        <v>0.194840053372678</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.586048555963287</v>
+        <v>0.203904390857287</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.603992812455003</v>
+        <v>0.202686144952659</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.595835156415597</v>
+        <v>0.207064112214807</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.603522890811624</v>
+        <v>0.19609287955606</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.604689385982536</v>
+        <v>0.21997191720571</v>
       </c>
     </row>
     <row r="11">
@@ -1264,58 +1264,58 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.510398327844973</v>
+        <v>0.162153354087921</v>
       </c>
       <c r="M11" t="n">
-        <v>0.493814539687759</v>
+        <v>0.0936821811182323</v>
       </c>
       <c r="N11" t="n">
-        <v>0.477117967464571</v>
+        <v>0.099688507208255</v>
       </c>
       <c r="O11" t="n">
-        <v>0.507039433822424</v>
+        <v>0.110048758974992</v>
       </c>
       <c r="P11" t="n">
-        <v>0.490842226079082</v>
+        <v>0.0730286407623642</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.504207688054875</v>
+        <v>0.12841282837541</v>
       </c>
       <c r="R11" t="n">
-        <v>0.471436744124522</v>
+        <v>0.0689127782533368</v>
       </c>
       <c r="S11" t="n">
-        <v>0.509293397082252</v>
+        <v>0.117586983889211</v>
       </c>
       <c r="T11" t="n">
-        <v>0.518019217595284</v>
+        <v>0.0661028607913952</v>
       </c>
       <c r="U11" t="n">
-        <v>0.494717068007326</v>
+        <v>0.0571452062170251</v>
       </c>
       <c r="V11" t="n">
-        <v>0.461146836654038</v>
+        <v>0.0599698368725667</v>
       </c>
       <c r="W11" t="n">
-        <v>0.465708362220014</v>
+        <v>0.0749205296206702</v>
       </c>
       <c r="X11" t="n">
-        <v>0.488297661586358</v>
+        <v>0.0652465657939537</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.478092732823901</v>
+        <v>0.0911311114789413</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.480908055180281</v>
+        <v>0.0838877352009764</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.502855328404898</v>
+        <v>0.0947261558068195</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.506282998276221</v>
+        <v>0.0676314762552524</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.52014872764409</v>
+        <v>0.122415195977108</v>
       </c>
     </row>
     <row r="12">
@@ -1356,55 +1356,55 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.474708222748769</v>
+        <v>0.176080658218823</v>
       </c>
       <c r="N12" t="n">
-        <v>0.423986926969498</v>
+        <v>0.176929520441181</v>
       </c>
       <c r="O12" t="n">
-        <v>0.461824116642728</v>
+        <v>0.183113659547849</v>
       </c>
       <c r="P12" t="n">
-        <v>0.444653670757971</v>
+        <v>0.164753405653432</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.460866487975515</v>
+        <v>0.193240405903093</v>
       </c>
       <c r="R12" t="n">
-        <v>0.433256927384944</v>
+        <v>0.164352000495194</v>
       </c>
       <c r="S12" t="n">
-        <v>0.456378630711921</v>
+        <v>0.186856953939635</v>
       </c>
       <c r="T12" t="n">
-        <v>0.469966585371236</v>
+        <v>0.161838012417512</v>
       </c>
       <c r="U12" t="n">
-        <v>0.434020398035586</v>
+        <v>0.159072720981941</v>
       </c>
       <c r="V12" t="n">
-        <v>0.448476860153869</v>
+        <v>0.160262895435428</v>
       </c>
       <c r="W12" t="n">
-        <v>0.425927189726688</v>
+        <v>0.165924618716144</v>
       </c>
       <c r="X12" t="n">
-        <v>0.420602758061726</v>
+        <v>0.161454590790039</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.43566755121029</v>
+        <v>0.173306747517584</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.443189683417254</v>
+        <v>0.171115009539407</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.47445929182206</v>
+        <v>0.176382068599906</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.461860586370861</v>
+        <v>0.16216450460569</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.490227821688106</v>
+        <v>0.191695408124837</v>
       </c>
     </row>
     <row r="13">
@@ -1448,52 +1448,52 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.428718907997174</v>
+        <v>0.118600989309758</v>
       </c>
       <c r="O13" t="n">
-        <v>0.461805459623404</v>
+        <v>0.128587225730808</v>
       </c>
       <c r="P13" t="n">
-        <v>0.447892863171296</v>
+        <v>0.0975441574660888</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.45897608456952</v>
+        <v>0.142897618497942</v>
       </c>
       <c r="R13" t="n">
-        <v>0.435747867448208</v>
+        <v>0.0959475907657513</v>
       </c>
       <c r="S13" t="n">
-        <v>0.464991141757604</v>
+        <v>0.134033808590872</v>
       </c>
       <c r="T13" t="n">
-        <v>0.476936618953748</v>
+        <v>0.0913713459939193</v>
       </c>
       <c r="U13" t="n">
-        <v>0.437638133048992</v>
+        <v>0.0882983560236796</v>
       </c>
       <c r="V13" t="n">
-        <v>0.434606621598163</v>
+        <v>0.0907006918018246</v>
       </c>
       <c r="W13" t="n">
-        <v>0.432152139894006</v>
+        <v>0.0994699275218798</v>
       </c>
       <c r="X13" t="n">
-        <v>0.438927214291186</v>
+        <v>0.0923531479575168</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.442066834754185</v>
+        <v>0.112274364862327</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.443809964119651</v>
+        <v>0.107248296421304</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.470873859706902</v>
+        <v>0.115830315304398</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.46204674224369</v>
+        <v>0.0933258308826738</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.490218165732645</v>
+        <v>0.138442195342283</v>
       </c>
     </row>
     <row r="14">
@@ -1540,49 +1540,49 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.414718458442396</v>
+        <v>0.129861283110856</v>
       </c>
       <c r="P14" t="n">
-        <v>0.396224432470236</v>
+        <v>0.0992519047465962</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.418425093118849</v>
+        <v>0.144678943418347</v>
       </c>
       <c r="R14" t="n">
-        <v>0.384633657520573</v>
+        <v>0.100851033219004</v>
       </c>
       <c r="S14" t="n">
-        <v>0.410511741445484</v>
+        <v>0.135258052903189</v>
       </c>
       <c r="T14" t="n">
-        <v>0.424524207003719</v>
+        <v>0.0943543011766968</v>
       </c>
       <c r="U14" t="n">
-        <v>0.383192181945061</v>
+        <v>0.0893568872392355</v>
       </c>
       <c r="V14" t="n">
-        <v>0.392652243658652</v>
+        <v>0.0927102237510945</v>
       </c>
       <c r="W14" t="n">
-        <v>0.369431798666645</v>
+        <v>0.100496129699688</v>
       </c>
       <c r="X14" t="n">
-        <v>0.364645899515583</v>
+        <v>0.0935874732312265</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.381591850659015</v>
+        <v>0.112213499655134</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.392067982366822</v>
+        <v>0.109962497955084</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.429951930947086</v>
+        <v>0.117782284669523</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.415325777099507</v>
+        <v>0.0948902339456123</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.451384010832097</v>
+        <v>0.141301738884823</v>
       </c>
     </row>
     <row r="15">
@@ -1632,46 +1632,46 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.433833507274385</v>
+        <v>0.110993981032251</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.44931200973719</v>
+        <v>0.152727971384502</v>
       </c>
       <c r="R15" t="n">
-        <v>0.423632436228133</v>
+        <v>0.112285253065115</v>
       </c>
       <c r="S15" t="n">
-        <v>0.44404702817932</v>
+        <v>0.14415981454476</v>
       </c>
       <c r="T15" t="n">
-        <v>0.462107914145643</v>
+        <v>0.10780279459024</v>
       </c>
       <c r="U15" t="n">
-        <v>0.425977069367914</v>
+        <v>0.102693968134055</v>
       </c>
       <c r="V15" t="n">
-        <v>0.432264707934445</v>
+        <v>0.106074944326565</v>
       </c>
       <c r="W15" t="n">
-        <v>0.411653496674419</v>
+        <v>0.112271450060887</v>
       </c>
       <c r="X15" t="n">
-        <v>0.410932868365028</v>
+        <v>0.107285468970104</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.423035923960336</v>
+        <v>0.123089379314297</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.428992626847697</v>
+        <v>0.120861133491024</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.466306467334025</v>
+        <v>0.128371536345572</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.450411633500485</v>
+        <v>0.107155818337096</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.486062840913079</v>
+        <v>0.149902195774344</v>
       </c>
     </row>
     <row r="16">
@@ -1724,43 +1724,43 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.435719554926757</v>
+        <v>0.12875229237917</v>
       </c>
       <c r="R16" t="n">
-        <v>0.397433532464945</v>
+        <v>0.0731542368883634</v>
       </c>
       <c r="S16" t="n">
-        <v>0.43065855866923</v>
+        <v>0.118100467231578</v>
       </c>
       <c r="T16" t="n">
-        <v>0.450719096253923</v>
+        <v>0.0666562918365994</v>
       </c>
       <c r="U16" t="n">
-        <v>0.409755739303907</v>
+        <v>0.0589446076352376</v>
       </c>
       <c r="V16" t="n">
-        <v>0.403463307177197</v>
+        <v>0.0638502808829841</v>
       </c>
       <c r="W16" t="n">
-        <v>0.39170660227841</v>
+        <v>0.0752248650921566</v>
       </c>
       <c r="X16" t="n">
-        <v>0.395224126320425</v>
+        <v>0.0663257668045562</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.403900301247656</v>
+        <v>0.0906292266162971</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.409757295515352</v>
+        <v>0.0864673435803378</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.447733492574081</v>
+        <v>0.0969048868322701</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.43135010947541</v>
+        <v>0.0674526561053572</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.472812086763513</v>
+        <v>0.124263597375855</v>
       </c>
     </row>
     <row r="17">
@@ -1816,40 +1816,40 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.424345965308331</v>
+        <v>0.13021323908787</v>
       </c>
       <c r="S17" t="n">
-        <v>0.445263171546635</v>
+        <v>0.157919795049111</v>
       </c>
       <c r="T17" t="n">
-        <v>0.461897858069595</v>
+        <v>0.124660436548665</v>
       </c>
       <c r="U17" t="n">
-        <v>0.425514525365847</v>
+        <v>0.120924630338635</v>
       </c>
       <c r="V17" t="n">
-        <v>0.429861903138442</v>
+        <v>0.123998548894399</v>
       </c>
       <c r="W17" t="n">
-        <v>0.412750462491228</v>
+        <v>0.129752648683056</v>
       </c>
       <c r="X17" t="n">
-        <v>0.409468894228896</v>
+        <v>0.125519771536421</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.423650195080844</v>
+        <v>0.139206975063038</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.428226469278602</v>
+        <v>0.13602909318956</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.466143595379365</v>
+        <v>0.142753265529455</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.44869619736416</v>
+        <v>0.125326760521541</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.4876486963219</v>
+        <v>0.162395206198114</v>
       </c>
     </row>
     <row r="18">
@@ -1908,37 +1908,37 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.41569908269509</v>
+        <v>0.118641037074622</v>
       </c>
       <c r="T18" t="n">
-        <v>0.441563023503822</v>
+        <v>0.0701547880242876</v>
       </c>
       <c r="U18" t="n">
-        <v>0.395398155563499</v>
+        <v>0.0640108313357001</v>
       </c>
       <c r="V18" t="n">
-        <v>0.395380187675486</v>
+        <v>0.0664180784178731</v>
       </c>
       <c r="W18" t="n">
-        <v>0.375015398650112</v>
+        <v>0.0763407893467802</v>
       </c>
       <c r="X18" t="n">
-        <v>0.388117233230741</v>
+        <v>0.0693116264483897</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.396832848940377</v>
+        <v>0.0919890033354278</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.40135137197061</v>
+        <v>0.0895599892757434</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.440749193308148</v>
+        <v>0.0992162855819629</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.42394308700996</v>
+        <v>0.0689958804724314</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.461658261696237</v>
+        <v>0.125676464077584</v>
       </c>
     </row>
     <row r="19">
@@ -2000,34 +2000,34 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.466108318014226</v>
+        <v>0.114723782098464</v>
       </c>
       <c r="U19" t="n">
-        <v>0.428091068573418</v>
+        <v>0.112384479850407</v>
       </c>
       <c r="V19" t="n">
-        <v>0.423612438004313</v>
+        <v>0.112062073863564</v>
       </c>
       <c r="W19" t="n">
-        <v>0.409104516796587</v>
+        <v>0.11864691841915</v>
       </c>
       <c r="X19" t="n">
-        <v>0.408274737011701</v>
+        <v>0.11403978826975</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.421106412086283</v>
+        <v>0.128842456650885</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.427919048256478</v>
+        <v>0.128106326878517</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.463673008764308</v>
+        <v>0.134865411500873</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.444972565354263</v>
+        <v>0.114221736315565</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.485470513976002</v>
+        <v>0.155007222065448</v>
       </c>
     </row>
     <row r="20">
@@ -2092,31 +2092,31 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.437048983210638</v>
+        <v>0.0487525726943954</v>
       </c>
       <c r="V20" t="n">
-        <v>0.421712852775511</v>
+        <v>0.0556516751350587</v>
       </c>
       <c r="W20" t="n">
-        <v>0.403142856090471</v>
+        <v>0.0684281296493025</v>
       </c>
       <c r="X20" t="n">
-        <v>0.414503049241211</v>
+        <v>0.0563114395211918</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.412999904128205</v>
+        <v>0.0846787878603054</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.420807827699366</v>
+        <v>0.081165237594184</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.463812227863937</v>
+        <v>0.0924388512279063</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.44417262111479</v>
+        <v>0.0598384369455739</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.49046099716553</v>
+        <v>0.121884513482981</v>
       </c>
     </row>
     <row r="21">
@@ -2184,28 +2184,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.409799852437575</v>
+        <v>0.0469924494540009</v>
       </c>
       <c r="W21" t="n">
-        <v>0.386087373689409</v>
+        <v>0.0604327671841193</v>
       </c>
       <c r="X21" t="n">
-        <v>0.381387703641028</v>
+        <v>0.0489484034529658</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.396279282362296</v>
+        <v>0.0785625191999426</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.407095328594819</v>
+        <v>0.0762385407215694</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.430326949035479</v>
+        <v>0.0874371152245735</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.423257797038675</v>
+        <v>0.0517866297641762</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.451336473241696</v>
+        <v>0.117679868321647</v>
       </c>
     </row>
     <row r="22">
@@ -2276,25 +2276,25 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.389420578360385</v>
+        <v>0.0668353371625655</v>
       </c>
       <c r="X22" t="n">
-        <v>0.388048878504814</v>
+        <v>0.056012884026009</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.400696575571681</v>
+        <v>0.0838185183324793</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.40620391953033</v>
+        <v>0.0799302012348939</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.444329151600806</v>
+        <v>0.0908947097770056</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.425009624266524</v>
+        <v>0.0579406519449166</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.466033859178395</v>
+        <v>0.119925133843597</v>
       </c>
     </row>
     <row r="23">
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.36950992395915</v>
+        <v>0.0688458888461634</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.377971335988546</v>
+        <v>0.0916985494038949</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.388893604106702</v>
+        <v>0.087990720994894</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.432658205855395</v>
+        <v>0.0988830095111221</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.413174324359989</v>
+        <v>0.0694801479237497</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.454522626817266</v>
+        <v>0.126439895095576</v>
       </c>
     </row>
     <row r="24">
@@ -2460,19 +2460,19 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.376792326054796</v>
+        <v>0.0842962347650926</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.377551064746976</v>
+        <v>0.078723090798108</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.419209745544248</v>
+        <v>0.0895456796537372</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.397372418632817</v>
+        <v>0.0558690971188138</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.444870437553918</v>
+        <v>0.119720013181908</v>
       </c>
     </row>
     <row r="25">
@@ -2552,16 +2552,16 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.396035087953585</v>
+        <v>0.101101038946445</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.433557630679992</v>
+        <v>0.108566883790352</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.41855970825665</v>
+        <v>0.0846794230057976</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.45672648238991</v>
+        <v>0.133872577017904</v>
       </c>
     </row>
     <row r="26">
@@ -2644,13 +2644,13 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.447665346715751</v>
+        <v>0.108031853452652</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.430473650524261</v>
+        <v>0.0827086641988802</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.471155243282738</v>
+        <v>0.132938151618458</v>
       </c>
     </row>
     <row r="27">
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.465099478139267</v>
+        <v>0.0932395780624013</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.490521675685511</v>
+        <v>0.140217257104872</v>
       </c>
     </row>
     <row r="28">
@@ -2828,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.482321448361295</v>
+        <v>0.121714115583825</v>
       </c>
     </row>
     <row r="29">
@@ -2939,16 +2939,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="C1" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="D1" t="n">
         <v>135</v>
       </c>
       <c r="E1" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="F1" t="n">
         <v>0</v>
@@ -2960,10 +2960,10 @@
         <v>315</v>
       </c>
       <c r="I1" t="n">
+        <v>270</v>
+      </c>
+      <c r="J1" t="n">
         <v>315</v>
-      </c>
-      <c r="J1" t="n">
-        <v>0</v>
       </c>
       <c r="K1" t="n">
         <v>180</v>
@@ -2984,7 +2984,7 @@
         <v>270</v>
       </c>
       <c r="Q1" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="R1" t="n">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>90</v>
       </c>
       <c r="T1" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="U1" t="n">
         <v>90</v>
@@ -3005,7 +3005,7 @@
         <v>270</v>
       </c>
       <c r="X1" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y1" t="n">
         <v>270</v>
@@ -3014,13 +3014,13 @@
         <v>225</v>
       </c>
       <c r="AA1" t="n">
+        <v>225</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>270</v>
+      </c>
+      <c r="AC1" t="n">
         <v>180</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>225</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>135</v>
       </c>
     </row>
     <row r="2">
@@ -3031,76 +3031,76 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>315</v>
+      </c>
+      <c r="D2" t="n">
+        <v>270</v>
+      </c>
+      <c r="E2" t="n">
+        <v>315</v>
+      </c>
+      <c r="F2" t="n">
         <v>90</v>
       </c>
-      <c r="D2" t="n">
-        <v>270</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H2" t="n">
+        <v>45</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>315</v>
+      </c>
+      <c r="L2" t="n">
+        <v>270</v>
+      </c>
+      <c r="M2" t="n">
+        <v>180</v>
+      </c>
+      <c r="N2" t="n">
+        <v>315</v>
+      </c>
+      <c r="O2" t="n">
+        <v>90</v>
+      </c>
+      <c r="P2" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q2" t="n">
         <v>225</v>
       </c>
-      <c r="G2" t="n">
-        <v>180</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>225</v>
-      </c>
-      <c r="M2" t="n">
-        <v>225</v>
-      </c>
-      <c r="N2" t="n">
-        <v>45</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>180</v>
-      </c>
       <c r="R2" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="S2" t="n">
         <v>225</v>
       </c>
       <c r="T2" t="n">
+        <v>135</v>
+      </c>
+      <c r="U2" t="n">
         <v>180</v>
       </c>
-      <c r="U2" t="n">
-        <v>135</v>
-      </c>
       <c r="V2" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="W2" t="n">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="X2" t="n">
         <v>270</v>
       </c>
       <c r="Y2" t="n">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="Z2" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -3135,13 +3135,13 @@
         <v>270</v>
       </c>
       <c r="H3" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="I3" t="n">
+        <v>90</v>
+      </c>
+      <c r="J3" t="n">
         <v>45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>180</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>135</v>
       </c>
       <c r="O3" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="P3" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Q3" t="n">
         <v>225</v>
       </c>
       <c r="R3" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="S3" t="n">
         <v>270</v>
@@ -3180,10 +3180,10 @@
         <v>135</v>
       </c>
       <c r="W3" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="X3" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y3" t="n">
         <v>135</v>
@@ -3195,7 +3195,7 @@
         <v>45</v>
       </c>
       <c r="AB3" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -3218,13 +3218,13 @@
         <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="G4" t="n">
         <v>180</v>
       </c>
       <c r="H4" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="I4" t="n">
         <v>135</v>
@@ -3236,7 +3236,7 @@
         <v>45</v>
       </c>
       <c r="L4" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>270</v>
@@ -3245,31 +3245,31 @@
         <v>45</v>
       </c>
       <c r="O4" t="n">
+        <v>180</v>
+      </c>
+      <c r="P4" t="n">
         <v>135</v>
       </c>
-      <c r="P4" t="n">
-        <v>180</v>
-      </c>
       <c r="Q4" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="R4" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="S4" t="n">
         <v>315</v>
       </c>
       <c r="T4" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="U4" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="V4" t="n">
         <v>180</v>
       </c>
       <c r="W4" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>180</v>
       </c>
       <c r="Z4" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
         <v>90</v>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="G5" t="n">
         <v>135</v>
@@ -3322,13 +3322,13 @@
         <v>45</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="L5" t="n">
         <v>270</v>
       </c>
       <c r="M5" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -3337,13 +3337,13 @@
         <v>45</v>
       </c>
       <c r="P5" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Q5" t="n">
         <v>225</v>
       </c>
       <c r="R5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="S5" t="n">
         <v>270</v>
@@ -3358,10 +3358,10 @@
         <v>135</v>
       </c>
       <c r="W5" t="n">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="X5" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Y5" t="n">
         <v>135</v>
@@ -3370,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AB5" t="n">
         <v>45</v>
       </c>
       <c r="AC5" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3399,10 +3399,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="H6" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="I6" t="n">
         <v>270</v>
@@ -3411,16 +3411,16 @@
         <v>315</v>
       </c>
       <c r="K6" t="n">
+        <v>180</v>
+      </c>
+      <c r="L6" t="n">
         <v>135</v>
       </c>
-      <c r="L6" t="n">
-        <v>180</v>
-      </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="O6" t="n">
         <v>315</v>
@@ -3429,28 +3429,28 @@
         <v>270</v>
       </c>
       <c r="Q6" t="n">
+        <v>90</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>90</v>
+      </c>
+      <c r="T6" t="n">
+        <v>315</v>
+      </c>
+      <c r="U6" t="n">
+        <v>45</v>
+      </c>
+      <c r="V6" t="n">
+        <v>315</v>
+      </c>
+      <c r="W6" t="n">
+        <v>270</v>
+      </c>
+      <c r="X6" t="n">
         <v>135</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>135</v>
-      </c>
-      <c r="T6" t="n">
-        <v>270</v>
-      </c>
-      <c r="U6" t="n">
-        <v>90</v>
-      </c>
-      <c r="V6" t="n">
-        <v>270</v>
-      </c>
-      <c r="W6" t="n">
-        <v>270</v>
-      </c>
-      <c r="X6" t="n">
-        <v>45</v>
       </c>
       <c r="Y6" t="n">
         <v>225</v>
@@ -3459,10 +3459,10 @@
         <v>225</v>
       </c>
       <c r="AA6" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="AC6" t="n">
         <v>135</v>
@@ -3497,10 +3497,10 @@
         <v>270</v>
       </c>
       <c r="J7" t="n">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="K7" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L7" t="n">
         <v>135</v>
@@ -3518,13 +3518,13 @@
         <v>225</v>
       </c>
       <c r="Q7" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="R7" t="n">
         <v>315</v>
       </c>
       <c r="S7" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="T7" t="n">
         <v>270</v>
@@ -3533,16 +3533,16 @@
         <v>45</v>
       </c>
       <c r="V7" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="W7" t="n">
         <v>225</v>
       </c>
       <c r="X7" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="Z7" t="n">
         <v>180</v>
@@ -3551,10 +3551,10 @@
         <v>135</v>
       </c>
       <c r="AB7" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="AC7" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="L8" t="n">
         <v>225</v>
@@ -3607,16 +3607,16 @@
         <v>315</v>
       </c>
       <c r="Q8" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R8" t="n">
         <v>45</v>
       </c>
       <c r="S8" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U8" t="n">
         <v>135</v>
@@ -3628,7 +3628,7 @@
         <v>315</v>
       </c>
       <c r="X8" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Y8" t="n">
         <v>315</v>
@@ -3637,13 +3637,13 @@
         <v>270</v>
       </c>
       <c r="AA8" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AB8" t="n">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AC8" t="n">
-        <v>180</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9">
@@ -3681,16 +3681,16 @@
         <v>270</v>
       </c>
       <c r="L9" t="n">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="M9" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="N9" t="n">
         <v>315</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>180</v>
       </c>
       <c r="T9" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="U9" t="n">
         <v>135</v>
@@ -3714,25 +3714,25 @@
         <v>45</v>
       </c>
       <c r="W9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="X9" t="n">
         <v>225</v>
       </c>
       <c r="Y9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z9" t="n">
         <v>315</v>
       </c>
       <c r="AA9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10">
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="L10" t="n">
         <v>225</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="Q10" t="n">
         <v>180</v>
@@ -3791,7 +3791,7 @@
         <v>45</v>
       </c>
       <c r="S10" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="T10" t="n">
         <v>135</v>
@@ -3800,10 +3800,10 @@
         <v>135</v>
       </c>
       <c r="V10" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="W10" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="X10" t="n">
         <v>225</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11">
@@ -3859,25 +3859,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>225</v>
       </c>
       <c r="N11" t="n">
+        <v>90</v>
+      </c>
+      <c r="O11" t="n">
         <v>135</v>
-      </c>
-      <c r="O11" t="n">
-        <v>180</v>
       </c>
       <c r="P11" t="n">
         <v>90</v>
       </c>
       <c r="Q11" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="R11" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="S11" t="n">
         <v>270</v>
@@ -3886,19 +3886,19 @@
         <v>180</v>
       </c>
       <c r="U11" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="V11" t="n">
         <v>135</v>
       </c>
       <c r="W11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="X11" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="Y11" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Z11" t="n">
         <v>45</v>
@@ -3969,22 +3969,22 @@
         <v>180</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="T12" t="n">
+        <v>180</v>
+      </c>
+      <c r="U12" t="n">
+        <v>270</v>
+      </c>
+      <c r="V12" t="n">
         <v>135</v>
-      </c>
-      <c r="U12" t="n">
-        <v>270</v>
-      </c>
-      <c r="V12" t="n">
-        <v>90</v>
       </c>
       <c r="W12" t="n">
         <v>90</v>
       </c>
       <c r="X12" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>90</v>
@@ -3993,13 +3993,13 @@
         <v>45</v>
       </c>
       <c r="AA12" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4043,19 +4043,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="O13" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="P13" t="n">
         <v>225</v>
       </c>
       <c r="Q13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="S13" t="n">
         <v>45</v>
@@ -4064,7 +4064,7 @@
         <v>315</v>
       </c>
       <c r="U13" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="V13" t="n">
         <v>270</v>
@@ -4073,7 +4073,7 @@
         <v>225</v>
       </c>
       <c r="X13" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="Y13" t="n">
         <v>225</v>
@@ -4082,10 +4082,10 @@
         <v>180</v>
       </c>
       <c r="AA13" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB13" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="AC13" t="n">
         <v>135</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="R14" t="n">
         <v>90</v>
       </c>
       <c r="S14" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="T14" t="n">
         <v>45</v>
@@ -4156,25 +4156,25 @@
         <v>180</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="Y14" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
         <v>315</v>
       </c>
       <c r="AA14" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AB14" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
         <v>225</v>
@@ -4230,28 +4230,28 @@
         <v>315</v>
       </c>
       <c r="Q15" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="R15" t="n">
         <v>45</v>
       </c>
       <c r="S15" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U15" t="n">
         <v>135</v>
       </c>
       <c r="V15" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>315</v>
       </c>
       <c r="X15" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="n">
         <v>315</v>
@@ -4260,13 +4260,13 @@
         <v>270</v>
       </c>
       <c r="AA15" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="AB15" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="AC15" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16">
@@ -4319,19 +4319,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="R16" t="n">
         <v>90</v>
       </c>
       <c r="S16" t="n">
+        <v>180</v>
+      </c>
+      <c r="T16" t="n">
+        <v>90</v>
+      </c>
+      <c r="U16" t="n">
         <v>135</v>
-      </c>
-      <c r="T16" t="n">
-        <v>45</v>
-      </c>
-      <c r="U16" t="n">
-        <v>180</v>
       </c>
       <c r="V16" t="n">
         <v>45</v>
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -4352,10 +4352,10 @@
         <v>270</v>
       </c>
       <c r="AB16" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
@@ -4411,10 +4411,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="S17" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>315</v>
@@ -4423,28 +4423,28 @@
         <v>315</v>
       </c>
       <c r="V17" t="n">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="W17" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="X17" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="Z17" t="n">
         <v>135</v>
       </c>
       <c r="AA17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="AB17" t="n">
         <v>180</v>
       </c>
       <c r="AC17" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18">
@@ -4503,37 +4503,37 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>90</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>45</v>
+      </c>
+      <c r="V18" t="n">
+        <v>315</v>
+      </c>
+      <c r="W18" t="n">
+        <v>270</v>
+      </c>
+      <c r="X18" t="n">
         <v>135</v>
       </c>
-      <c r="T18" t="n">
-        <v>315</v>
-      </c>
-      <c r="U18" t="n">
-        <v>90</v>
-      </c>
-      <c r="V18" t="n">
-        <v>270</v>
-      </c>
-      <c r="W18" t="n">
-        <v>270</v>
-      </c>
-      <c r="X18" t="n">
-        <v>45</v>
-      </c>
       <c r="Y18" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="Z18" t="n">
         <v>225</v>
       </c>
       <c r="AA18" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="AB18" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="AC18" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -4598,31 +4598,31 @@
         <v>270</v>
       </c>
       <c r="U19" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="V19" t="n">
         <v>225</v>
       </c>
       <c r="W19" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="X19" t="n">
         <v>45</v>
       </c>
       <c r="Y19" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="Z19" t="n">
+        <v>135</v>
+      </c>
+      <c r="AA19" t="n">
         <v>90</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>135</v>
       </c>
       <c r="AB19" t="n">
         <v>180</v>
       </c>
       <c r="AC19" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -4687,28 +4687,28 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V20" t="n">
         <v>315</v>
       </c>
       <c r="W20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="X20" t="n">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="Y20" t="n">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z20" t="n">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="AA20" t="n">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="AB20" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="AC20" t="n">
         <v>180</v>
@@ -4779,28 +4779,28 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="W21" t="n">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="X21" t="n">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="Y21" t="n">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="Z21" t="n">
         <v>135</v>
       </c>
       <c r="AA21" t="n">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="AB21" t="n">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="AC21" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -4874,7 +4874,7 @@
         <v>315</v>
       </c>
       <c r="X22" t="n">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="n">
         <v>315</v>
@@ -4886,7 +4886,7 @@
         <v>225</v>
       </c>
       <c r="AB22" t="n">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="AC22" t="n">
         <v>225</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         <v>270</v>
       </c>
       <c r="AB23" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>225</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
@@ -5245,7 +5245,7 @@
         <v>45</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27">
